--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H2">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I2">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J2">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N2">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O2">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P2">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q2">
-        <v>25.97848453992389</v>
+        <v>13.53783721230611</v>
       </c>
       <c r="R2">
-        <v>233.806360859315</v>
+        <v>121.840534910755</v>
       </c>
       <c r="S2">
-        <v>0.002199186497676301</v>
+        <v>0.0006425140812667193</v>
       </c>
       <c r="T2">
-        <v>0.0021991864976763</v>
+        <v>0.0006425140812667194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H3">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I3">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J3">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.150408</v>
       </c>
       <c r="O3">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P3">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q3">
-        <v>18.66680006470666</v>
+        <v>14.85213087147466</v>
       </c>
       <c r="R3">
-        <v>168.00120058236</v>
+        <v>133.669177843272</v>
       </c>
       <c r="S3">
-        <v>0.001580222071616125</v>
+        <v>0.0007048912667574517</v>
       </c>
       <c r="T3">
-        <v>0.001580222071616125</v>
+        <v>0.0007048912667574518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H4">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I4">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J4">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N4">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O4">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P4">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q4">
-        <v>220.339477333165</v>
+        <v>243.0245983439227</v>
       </c>
       <c r="R4">
-        <v>1983.055295998485</v>
+        <v>2187.221385095304</v>
       </c>
       <c r="S4">
-        <v>0.01865265091624045</v>
+        <v>0.01153409692267677</v>
       </c>
       <c r="T4">
-        <v>0.01865265091624045</v>
+        <v>0.01153409692267677</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H5">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I5">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J5">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N5">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O5">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P5">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q5">
-        <v>3.107174271816111</v>
+        <v>2.077784897907889</v>
       </c>
       <c r="R5">
-        <v>27.964568446345</v>
+        <v>18.700064081171</v>
       </c>
       <c r="S5">
-        <v>0.0002630351933733392</v>
+        <v>9.861294930741298E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002630351933733392</v>
+        <v>9.861294930741299E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J6">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N6">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O6">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P6">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q6">
-        <v>948.1717812102861</v>
+        <v>621.0171720456101</v>
       </c>
       <c r="R6">
-        <v>8533.546030892574</v>
+        <v>5589.154548410491</v>
       </c>
       <c r="S6">
-        <v>0.08026667512151417</v>
+        <v>0.02947385697510329</v>
       </c>
       <c r="T6">
-        <v>0.08026667512151416</v>
+        <v>0.02947385697510329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J7">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.150408</v>
       </c>
       <c r="O7">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P7">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q7">
         <v>681.307373401584</v>
@@ -883,10 +883,10 @@
         <v>6131.766360614256</v>
       </c>
       <c r="S7">
-        <v>0.05767549581460147</v>
+        <v>0.03233526701616998</v>
       </c>
       <c r="T7">
-        <v>0.05767549581460148</v>
+        <v>0.03233526701616999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J8">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N8">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O8">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P8">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q8">
-        <v>8042.027023280034</v>
+        <v>11148.19497636389</v>
       </c>
       <c r="R8">
-        <v>72378.2432095203</v>
+        <v>100333.754787275</v>
       </c>
       <c r="S8">
-        <v>0.6807909528504469</v>
+        <v>0.5291001908716655</v>
       </c>
       <c r="T8">
-        <v>0.6807909528504469</v>
+        <v>0.5291001908716657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J9">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N9">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O9">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P9">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q9">
-        <v>113.406729299818</v>
+        <v>95.31360742356203</v>
       </c>
       <c r="R9">
-        <v>1020.660563698362</v>
+        <v>857.8224668120581</v>
       </c>
       <c r="S9">
-        <v>0.00960035014507901</v>
+        <v>0.004523642436053099</v>
       </c>
       <c r="T9">
-        <v>0.00960035014507901</v>
+        <v>0.004523642436053099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H10">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N10">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O10">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P10">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q10">
-        <v>169.6065220415521</v>
+        <v>407.8356104235239</v>
       </c>
       <c r="R10">
-        <v>1526.458698373969</v>
+        <v>3670.520493811715</v>
       </c>
       <c r="S10">
-        <v>0.01435789576633681</v>
+        <v>0.01935612893180038</v>
       </c>
       <c r="T10">
-        <v>0.0143578957663368</v>
+        <v>0.01935612893180038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H11">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>12.150408</v>
       </c>
       <c r="O11">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P11">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q11">
-        <v>121.8705052542373</v>
+        <v>447.4295092388772</v>
       </c>
       <c r="R11">
-        <v>1096.834547288136</v>
+        <v>4026.865583149895</v>
       </c>
       <c r="S11">
-        <v>0.01031684389473215</v>
+        <v>0.02123527972392168</v>
       </c>
       <c r="T11">
-        <v>0.01031684389473215</v>
+        <v>0.02123527972392168</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H12">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N12">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O12">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P12">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q12">
-        <v>1438.537046358479</v>
+        <v>7321.264383606942</v>
       </c>
       <c r="R12">
-        <v>12946.83341722631</v>
+        <v>65891.37945246248</v>
       </c>
       <c r="S12">
-        <v>0.1217781292783595</v>
+        <v>0.3474717109811265</v>
       </c>
       <c r="T12">
-        <v>0.1217781292783595</v>
+        <v>0.3474717109811266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H13">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N13">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O13">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P13">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q13">
-        <v>20.28590315997189</v>
+        <v>62.59453846857812</v>
       </c>
       <c r="R13">
-        <v>182.573128439747</v>
+        <v>563.3508462172031</v>
       </c>
       <c r="S13">
-        <v>0.001717285866079619</v>
+        <v>0.002970775297836651</v>
       </c>
       <c r="T13">
-        <v>0.001717285866079619</v>
+        <v>0.002970775297836652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H14">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I14">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J14">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N14">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O14">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P14">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q14">
-        <v>0.9172004630385555</v>
+        <v>0.5767949250227778</v>
       </c>
       <c r="R14">
-        <v>8.254804167346999</v>
+        <v>5.191154325205001</v>
       </c>
       <c r="S14">
-        <v>7.764482454228457E-05</v>
+        <v>2.737504193014199E-05</v>
       </c>
       <c r="T14">
-        <v>7.764482454228455E-05</v>
+        <v>2.737504193014199E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H15">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I15">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J15">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>12.150408</v>
       </c>
       <c r="O15">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P15">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q15">
-        <v>0.6590529804186666</v>
+        <v>0.6327918985946666</v>
       </c>
       <c r="R15">
-        <v>5.931476823767999</v>
+        <v>5.695127087352</v>
       </c>
       <c r="S15">
-        <v>5.579156911799988E-05</v>
+        <v>3.003269273979669E-05</v>
       </c>
       <c r="T15">
-        <v>5.579156911799989E-05</v>
+        <v>3.00326927397967E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H16">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I16">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J16">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N16">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O16">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P16">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q16">
-        <v>7.779340258476999</v>
+        <v>10.35433893776267</v>
       </c>
       <c r="R16">
-        <v>70.01406232629299</v>
+        <v>93.189050439864</v>
       </c>
       <c r="S16">
-        <v>0.0006585534283564643</v>
+        <v>0.000491423294976046</v>
       </c>
       <c r="T16">
-        <v>0.0006585534283564643</v>
+        <v>0.0004914232949760461</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H17">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I17">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J17">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N17">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O17">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P17">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q17">
-        <v>0.1097023837734444</v>
+        <v>0.08852638465122224</v>
       </c>
       <c r="R17">
-        <v>0.9873214539609999</v>
+        <v>0.796737461861</v>
       </c>
       <c r="S17">
-        <v>9.286761927421098E-06</v>
+        <v>4.20151666843356E-06</v>
       </c>
       <c r="T17">
-        <v>9.286761927421098E-06</v>
+        <v>4.201516668433561E-06</v>
       </c>
     </row>
   </sheetData>
